--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_20-09.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_20-09.xlsx
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>1:5</t>
+  </si>
+  <si>
+    <t>DIGESTIN 20 TABLETS</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -1774,17 +1777,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1792,7 +1795,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1800,17 +1803,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1818,7 +1821,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1826,13 +1829,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
@@ -1858,7 +1861,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
@@ -1884,7 +1887,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
@@ -1904,17 +1907,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1922,7 +1925,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1930,17 +1933,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1956,13 +1959,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
@@ -1982,13 +1985,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -2008,17 +2011,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2034,17 +2037,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>169.19999999999999</v>
+        <v>80</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2060,13 +2063,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>100</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
@@ -2086,13 +2089,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
@@ -2112,13 +2115,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>25.739999999999998</v>
+        <v>54</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
@@ -2138,17 +2141,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>27.260000000000002</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2156,7 +2159,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2164,17 +2167,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>119</v>
+        <v>27.260000000000002</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2196,11 +2199,11 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2216,13 +2219,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
@@ -2242,17 +2245,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2268,17 +2271,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>69.5</v>
+        <v>56</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2294,17 +2297,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>86.5</v>
+        <v>69.5</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2320,17 +2323,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>58</v>
+        <v>86.5</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2346,13 +2349,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>38.5</v>
+        <v>58</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
@@ -2372,17 +2375,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>19</v>
+        <v>38.5</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2398,17 +2401,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>0.40000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2416,7 +2419,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2424,17 +2427,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2450,13 +2453,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
@@ -2476,13 +2479,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
@@ -2502,17 +2505,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2528,17 +2531,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2554,13 +2557,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
@@ -2572,7 +2575,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2580,13 +2583,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
@@ -2606,17 +2609,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2632,17 +2635,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>24.960000000000001</v>
+        <v>46</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2658,17 +2661,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>36</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2684,17 +2687,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>33.840000000000003</v>
+        <v>36</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2710,17 +2713,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>31</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2736,17 +2739,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2754,7 +2757,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2762,17 +2765,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>0.25</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2788,17 +2791,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2806,7 +2809,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2814,17 +2817,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2846,11 +2849,11 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2866,17 +2869,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2898,7 +2901,7 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
@@ -2918,17 +2921,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2936,7 +2939,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2944,17 +2947,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2976,7 +2979,7 @@
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
@@ -3002,7 +3005,7 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
@@ -3022,13 +3025,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
@@ -3048,13 +3051,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -3074,13 +3077,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
@@ -3100,13 +3103,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
@@ -3126,13 +3129,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
@@ -3152,17 +3155,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3170,7 +3173,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3178,17 +3181,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>134.40000000000001</v>
+        <v>26</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>4</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3204,17 +3207,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>60</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3230,13 +3233,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
@@ -3256,13 +3259,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
@@ -3282,13 +3285,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
@@ -3300,7 +3303,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3308,13 +3311,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
@@ -3334,7 +3337,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
@@ -3344,7 +3347,7 @@
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3360,17 +3363,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3386,17 +3389,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>74.689999999999998</v>
+        <v>168</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>0.20000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3412,17 +3415,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>128</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3438,17 +3441,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3464,17 +3467,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3490,17 +3493,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>24.960000000000001</v>
+        <v>18</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3516,17 +3519,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>17</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3542,17 +3545,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3568,13 +3571,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>102.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
@@ -3594,17 +3597,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>168</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3620,17 +3623,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3638,7 +3641,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3646,13 +3649,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
@@ -3672,13 +3675,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
@@ -3698,17 +3701,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>98.400000000000006</v>
+        <v>30</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3716,7 +3719,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3724,17 +3727,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>20</v>
+        <v>98.400000000000006</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3742,7 +3745,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3750,13 +3753,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
@@ -3776,17 +3779,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3794,7 +3797,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3802,17 +3805,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3828,17 +3831,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3846,7 +3849,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3854,17 +3857,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3880,13 +3883,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
@@ -3906,13 +3909,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
@@ -3932,17 +3935,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -3958,17 +3961,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -3976,7 +3979,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3984,17 +3987,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4010,17 +4013,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4036,13 +4039,13 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
@@ -4054,7 +4057,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4062,13 +4065,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
@@ -4088,51 +4091,77 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="K121" s="11">
-        <v>6798.4399999999996</v>
-      </c>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="11"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="12">
+    <row r="121" ht="24.75" customHeight="1">
+      <c r="A121" s="6">
+        <v>118</v>
+      </c>
+      <c t="s" r="B121" s="7">
         <v>156</v>
       </c>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c t="s" r="F122" s="13">
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c t="s" r="H121" s="8">
+        <v>50</v>
+      </c>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="9">
+        <v>30</v>
+      </c>
+      <c r="M121" s="9"/>
+      <c r="N121" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" ht="26.25" customHeight="1">
+      <c r="K122" s="11">
+        <v>6886.4399999999996</v>
+      </c>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="12">
         <v>157</v>
       </c>
-      <c r="G122" s="13"/>
-      <c r="H122" s="14"/>
-      <c t="s" r="I122" s="15">
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c t="s" r="F123" s="13">
         <v>158</v>
       </c>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="15"/>
-      <c r="M122" s="15"/>
-      <c r="N122" s="15"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="14"/>
+      <c t="s" r="I123" s="15">
+        <v>159</v>
+      </c>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="365">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4491,10 +4520,13 @@
     <mergeCell ref="B120:G120"/>
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
-    <mergeCell ref="K121:N121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="I122:N122"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="K122:N122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="I123:N123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
